--- a/docs/Ocjene/Ocjene.xlsx
+++ b/docs/Ocjene/Ocjene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LUKA\Academic\HS\NASTAVA\20-21\WebMultiVar\Ocjene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CD5B9D-9F19-4190-9A57-DBFCF80DA9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949FFA71-0178-4E2C-85BD-D6EE7014B341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="5520" windowWidth="31590" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18940" yWindow="1890" windowWidth="31590" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Ime</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Kolokvij</t>
   </si>
   <si>
-    <t>Poslati će empirijski za 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Petar </t>
   </si>
   <si>
@@ -96,7 +93,76 @@
     <t>Kovačić</t>
   </si>
   <si>
-    <t>Esej će poslati za upis</t>
+    <t>Ana Marija</t>
+  </si>
+  <si>
+    <t>Buljan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karin </t>
+  </si>
+  <si>
+    <t>Kralj</t>
+  </si>
+  <si>
+    <t>Esej poslan</t>
+  </si>
+  <si>
+    <t>Jana</t>
+  </si>
+  <si>
+    <t>Smrekar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomislav </t>
+  </si>
+  <si>
+    <t>Ivanušević</t>
+  </si>
+  <si>
+    <t>Tajana</t>
+  </si>
+  <si>
+    <t>Polanec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jelena </t>
+  </si>
+  <si>
+    <t>Turk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iva </t>
+  </si>
+  <si>
+    <t>Hađina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert </t>
+  </si>
+  <si>
+    <t>Ravlić</t>
+  </si>
+  <si>
+    <t>Poslati će esej+empirisjki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helena </t>
+  </si>
+  <si>
+    <t>Radoš</t>
+  </si>
+  <si>
+    <t>Nije poslala esej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josip </t>
+  </si>
+  <si>
+    <t>Kutić</t>
+  </si>
+  <si>
+    <t>Poslan esej</t>
   </si>
 </sst>
 </file>
@@ -423,14 +489,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
     <col min="3" max="3" width="18.90625" customWidth="1"/>
     <col min="4" max="4" width="22.90625" customWidth="1"/>
   </cols>
@@ -468,19 +535,17 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>44354</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
         <v>5</v>
       </c>
     </row>
@@ -502,34 +567,32 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -537,36 +600,206 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="3">
+        <v>44355</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1">
-        <v>44355</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="E8">
-        <v>2</v>
+      <c r="C9" s="1">
+        <v>44361</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44368</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44368</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44368</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44368</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44368</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44368</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44368</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44368</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44368</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
